--- a/009.xlsx
+++ b/009.xlsx
@@ -2156,7 +2156,7 @@
     <t>r</t>
   </si>
   <si>
-    <t>Passenger cars</t>
+    <t>NOPC</t>
   </si>
   <si>
     <t>NOBUS</t>
@@ -2168,13 +2168,13 @@
     <t>NOLO</t>
   </si>
   <si>
-    <t>Combined vehicles</t>
-  </si>
-  <si>
-    <t>Tractors etc</t>
-  </si>
-  <si>
-    <t>Special purpose vehicles</t>
+    <t>NOCV</t>
+  </si>
+  <si>
+    <t>NOTR</t>
+  </si>
+  <si>
+    <t>NOSPV</t>
   </si>
   <si>
     <t>NOMP</t>
